--- a/Team-Data/2014-15/4-10-2014-15.xlsx
+++ b/Team-Data/2014-15/4-10-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -699,7 +766,7 @@
         <v>0.383</v>
       </c>
       <c r="O2" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P2" t="n">
         <v>21.3</v>
@@ -717,7 +784,7 @@
         <v>40.6</v>
       </c>
       <c r="U2" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="V2" t="n">
         <v>14.3</v>
@@ -729,7 +796,7 @@
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
         <v>17.7</v>
@@ -741,10 +808,10 @@
         <v>102.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -768,19 +835,19 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -816,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>0.468</v>
+        <v>0.462</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -887,7 +954,7 @@
         <v>20.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
         <v>11.1</v>
@@ -899,13 +966,13 @@
         <v>43.9</v>
       </c>
       <c r="U3" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V3" t="n">
         <v>13.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>3.6</v>
@@ -914,7 +981,7 @@
         <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
         <v>18.9</v>
@@ -923,10 +990,10 @@
         <v>101.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -938,10 +1005,10 @@
         <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
@@ -950,10 +1017,10 @@
         <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN3" t="n">
         <v>27</v>
@@ -962,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -974,13 +1041,13 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
@@ -989,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1001,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -1030,49 +1097,49 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
         <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.468</v>
+        <v>0.462</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J4" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.453</v>
       </c>
       <c r="L4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M4" t="n">
         <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="O4" t="n">
         <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
         <v>32</v>
@@ -1081,16 +1148,16 @@
         <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
         <v>4.5</v>
@@ -1102,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1120,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>16</v>
@@ -1129,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1138,19 +1205,19 @@
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>17</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1177,13 +1244,13 @@
         <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -1212,46 +1279,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>0.418</v>
+        <v>0.423</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
         <v>84.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O5" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R5" t="n">
         <v>10.1</v>
@@ -1263,16 +1330,16 @@
         <v>44.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
         <v>5.4</v>
@@ -1284,13 +1351,13 @@
         <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.6</v>
+        <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1338,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1353,10 +1420,10 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
@@ -1365,7 +1432,7 @@
         <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
@@ -1505,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP6" t="n">
         <v>5</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="n">
         <v>51</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.646</v>
+        <v>0.654</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J7" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
         <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O7" t="n">
         <v>18</v>
@@ -1615,7 +1682,7 @@
         <v>23.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
@@ -1627,10 +1694,10 @@
         <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V7" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
         <v>7.5</v>
@@ -1639,22 +1706,22 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z7" t="n">
         <v>18.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1666,16 +1733,16 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>4</v>
@@ -1684,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1693,10 +1760,10 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
         <v>21</v>
@@ -1705,13 +1772,13 @@
         <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1720,13 +1787,13 @@
         <v>11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -1761,82 +1828,82 @@
         <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.615</v>
+        <v>0.603</v>
       </c>
       <c r="H8" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>86</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
         <v>8.9</v>
       </c>
       <c r="M8" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="N8" t="n">
         <v>0.349</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P8" t="n">
         <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
         <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.2</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1881,22 +1948,22 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>87.2</v>
+        <v>86.8</v>
       </c>
       <c r="K9" t="n">
         <v>0.431</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M9" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O9" t="n">
         <v>17.6</v>
@@ -1979,16 +2046,16 @@
         <v>24.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T9" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="U9" t="n">
         <v>21.6</v>
@@ -2012,13 +2079,13 @@
         <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,28 +2097,28 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
       </c>
       <c r="AL9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM9" t="n">
         <v>13</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>12</v>
       </c>
       <c r="AN9" t="n">
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2063,22 +2130,22 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW9" t="n">
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2090,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="n">
-        <v>0.38</v>
+        <v>0.385</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.43</v>
       </c>
       <c r="L10" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M10" t="n">
         <v>24.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O10" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
         <v>22.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.702</v>
+        <v>0.705</v>
       </c>
       <c r="R10" t="n">
         <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T10" t="n">
         <v>44.9</v>
       </c>
       <c r="U10" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2197,10 +2264,10 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2224,13 +2291,13 @@
         <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2254,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>16</v>
@@ -2269,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2424,7 +2491,7 @@
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2451,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="BA11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -2489,13 +2556,13 @@
         <v>78</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.679</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2510,10 +2577,10 @@
         <v>0.442</v>
       </c>
       <c r="L12" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="N12" t="n">
         <v>0.348</v>
@@ -2525,25 +2592,25 @@
         <v>25.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.715</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
@@ -2552,28 +2619,28 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
         <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2606,10 +2673,10 @@
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT12" t="n">
         <v>15</v>
@@ -2621,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2636,10 +2703,10 @@
         <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
         <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.456</v>
+        <v>0.449</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2689,7 +2756,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L13" t="n">
         <v>7.4</v>
@@ -2698,7 +2765,7 @@
         <v>21.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
         <v>16.8</v>
@@ -2707,7 +2774,7 @@
         <v>22.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R13" t="n">
         <v>10.4</v>
@@ -2716,13 +2783,13 @@
         <v>34.4</v>
       </c>
       <c r="T13" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W13" t="n">
         <v>6.2</v>
@@ -2740,28 +2807,28 @@
         <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>0.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH13" t="n">
         <v>19</v>
       </c>
-      <c r="AF13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>20</v>
-      </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
@@ -2776,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2995,19 @@
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
@@ -2976,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -3035,55 +3102,55 @@
         <v>78</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>0.269</v>
+        <v>0.256</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.738</v>
+        <v>0.741</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3146,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3155,13 +3222,13 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3170,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
@@ -3179,10 +3246,10 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3232,10 +3299,10 @@
         <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L16" t="n">
         <v>5.2</v>
@@ -3250,10 +3317,10 @@
         <v>17.6</v>
       </c>
       <c r="P16" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
         <v>10.3</v>
@@ -3262,7 +3329,7 @@
         <v>32.2</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
         <v>21.7</v>
@@ -3283,16 +3350,16 @@
         <v>19.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC16" t="n">
         <v>3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3313,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,25 +3389,25 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>14</v>
@@ -3358,13 +3425,13 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-2.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -3486,7 +3553,7 @@
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3510,7 +3577,7 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3528,7 +3595,7 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>12</v>
@@ -3543,13 +3610,13 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="n">
         <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>0.494</v>
+        <v>0.487</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,10 +3663,10 @@
         <v>37.5</v>
       </c>
       <c r="J18" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K18" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L18" t="n">
         <v>6.7</v>
@@ -3611,31 +3678,31 @@
         <v>0.364</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R18" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S18" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V18" t="n">
         <v>16.7</v>
       </c>
       <c r="W18" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.9</v>
@@ -3647,31 +3714,31 @@
         <v>22.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
         <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
         <v>17</v>
@@ -3704,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3713,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
@@ -3725,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" t="n">
-        <v>0.203</v>
+        <v>0.205</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3778,7 +3845,7 @@
         <v>36.5</v>
       </c>
       <c r="J19" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>0.438</v>
@@ -3790,19 +3857,19 @@
         <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="O19" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P19" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R19" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S19" t="n">
         <v>29.3</v>
@@ -3823,7 +3890,7 @@
         <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z19" t="n">
         <v>19</v>
@@ -3835,10 +3902,10 @@
         <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3868,16 +3935,16 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>8</v>
@@ -3889,7 +3956,7 @@
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -3957,10 +4024,10 @@
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
         <v>0.457</v>
@@ -3978,22 +4045,22 @@
         <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.757</v>
+        <v>0.754</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V20" t="n">
         <v>13.4</v>
@@ -4005,31 +4072,31 @@
         <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC20" t="n">
         <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4038,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
         <v>10</v>
@@ -4059,13 +4126,13 @@
         <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
         <v>16</v>
@@ -4074,7 +4141,7 @@
         <v>10</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>25</v>
@@ -4089,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,25 +4209,25 @@
         <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L21" t="n">
         <v>6.8</v>
       </c>
       <c r="M21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O21" t="n">
         <v>14.8</v>
       </c>
       <c r="P21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="Q21" t="n">
         <v>0.771</v>
@@ -4178,7 +4245,7 @@
         <v>21.2</v>
       </c>
       <c r="V21" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4187,13 +4254,13 @@
         <v>4.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>91.8</v>
@@ -4202,7 +4269,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4226,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4238,7 +4305,7 @@
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="n">
         <v>36</v>
       </c>
       <c r="G22" t="n">
-        <v>0.544</v>
+        <v>0.538</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,16 +4391,16 @@
         <v>38.6</v>
       </c>
       <c r="J22" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.447</v>
       </c>
       <c r="L22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N22" t="n">
         <v>0.339</v>
@@ -4348,7 +4415,7 @@
         <v>0.761</v>
       </c>
       <c r="R22" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S22" t="n">
         <v>34.8</v>
@@ -4360,13 +4427,13 @@
         <v>20.6</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
@@ -4378,13 +4445,13 @@
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4423,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4438,25 +4505,25 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -4503,55 +4570,55 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
         <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R23" t="n">
         <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>20.9</v>
@@ -4560,13 +4627,13 @@
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,46 +4648,46 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
       </c>
       <c r="AP23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>24</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,13 +4827,13 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="n">
         <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>0.488</v>
+        <v>0.494</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J25" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L25" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M25" t="n">
         <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O25" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P25" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q25" t="n">
         <v>0.762</v>
@@ -4906,7 +4973,7 @@
         <v>20.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
         <v>8.6</v>
@@ -4915,19 +4982,19 @@
         <v>4.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>102.6</v>
+        <v>102.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -4936,22 +5003,22 @@
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>6</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>8</v>
-      </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4960,7 +5027,7 @@
         <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>
@@ -4969,7 +5036,7 @@
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4999,13 +5066,13 @@
         <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -5112,25 +5179,25 @@
         <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5163,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5243,13 +5310,13 @@
         <v>5.6</v>
       </c>
       <c r="M27" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O27" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="P27" t="n">
         <v>28.9</v>
@@ -5264,7 +5331,7 @@
         <v>33.3</v>
       </c>
       <c r="T27" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U27" t="n">
         <v>20.1</v>
@@ -5273,10 +5340,10 @@
         <v>16.4</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
@@ -5285,16 +5352,16 @@
         <v>20.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB27" t="n">
         <v>100.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>22</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -5416,34 +5483,34 @@
         <v>39.1</v>
       </c>
       <c r="J28" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.368</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
         <v>43.8</v>
@@ -5464,28 +5531,28 @@
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
         <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC28" t="n">
         <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5506,19 +5573,19 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
         <v>8</v>
@@ -5533,13 +5600,13 @@
         <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.595</v>
+        <v>0.59</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,10 +5665,10 @@
         <v>38</v>
       </c>
       <c r="J29" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L29" t="n">
         <v>8.800000000000001</v>
@@ -5610,25 +5677,25 @@
         <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S29" t="n">
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
         <v>20.8</v>
@@ -5640,46 +5707,46 @@
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y29" t="n">
         <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA29" t="n">
         <v>20.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AC29" t="n">
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>11</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5706,16 +5773,16 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
       </c>
       <c r="F30" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>0.456</v>
+        <v>0.462</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>35.3</v>
       </c>
       <c r="J30" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K30" t="n">
         <v>0.447</v>
@@ -5792,7 +5859,7 @@
         <v>21.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O30" t="n">
         <v>16.9</v>
@@ -5813,7 +5880,7 @@
         <v>43.9</v>
       </c>
       <c r="U30" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V30" t="n">
         <v>15.3</v>
@@ -5831,25 +5898,25 @@
         <v>19.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5885,10 +5952,10 @@
         <v>4</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU30" t="n">
         <v>30</v>
@@ -5909,7 +5976,7 @@
         <v>11</v>
       </c>
       <c r="BA30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" t="n">
         <v>45</v>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.57</v>
+        <v>0.577</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J31" t="n">
         <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N31" t="n">
         <v>0.36</v>
@@ -5980,13 +6047,13 @@
         <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R31" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S31" t="n">
         <v>34</v>
@@ -5995,19 +6062,19 @@
         <v>44.3</v>
       </c>
       <c r="U31" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
         <v>20.9</v>
@@ -6016,13 +6083,13 @@
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
@@ -6064,37 +6131,37 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>6</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>20</v>
       </c>
       <c r="BB31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-10-2014-15</t>
+          <t>2015-04-10</t>
         </is>
       </c>
     </row>
